--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni - gitfolder\Agile-Software-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC951CF0-AE83-4193-BE2F-B1C044A3431C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A525CC-7CCB-4817-AF41-7A3192A65636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>Create results page for website to return list</t>
   </si>
   <si>
-    <t>Return list from database in order of provider ID</t>
-  </si>
-  <si>
     <t>9. As a customer, I can view search results on a map</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>AR, WM,AI</t>
   </si>
   <si>
-    <t>Return list from database from nearest to location</t>
-  </si>
-  <si>
     <t>12. As a customer, I can view details of a search result in the list</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>User Story #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return list from database in order of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return list from database based on </t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -330,6 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,8 +1035,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
+      <c r="A22" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -1049,7 +1056,7 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>8</v>
@@ -1057,10 +1064,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1093,8 +1100,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
+      <c r="A26" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
@@ -1114,7 +1121,7 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -1122,7 +1129,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -1139,7 +1146,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1159,7 +1166,7 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
@@ -1167,7 +1174,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1184,7 +1191,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -1204,7 +1211,7 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
@@ -1212,7 +1219,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -1229,7 +1236,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
@@ -1249,7 +1256,7 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
@@ -1257,7 +1264,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -1274,7 +1281,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -1294,7 +1301,7 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -1302,10 +1309,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1339,7 +1346,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -1359,7 +1366,7 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
@@ -1367,10 +1374,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
@@ -1404,7 +1411,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
@@ -1424,7 +1431,7 @@
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
@@ -1432,10 +1439,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -1455,7 +1462,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -1472,7 +1479,7 @@
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
@@ -1480,7 +1487,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -1497,10 +1504,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
@@ -1517,7 +1524,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -1534,7 +1541,7 @@
     </row>
     <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" ref="E54:J54" si="0">SUM(E3:E53)</f>
@@ -1627,10 +1634,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1662,7 +1669,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1677,7 +1684,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1695,7 +1702,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1710,7 +1717,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1725,7 +1732,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1740,7 +1747,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni - gitfolder\Agile-Software-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A525CC-7CCB-4817-AF41-7A3192A65636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F11304-CC38-4936-88D1-2F1D1B1FD7C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -227,10 +227,10 @@
     <t>User Story #</t>
   </si>
   <si>
-    <t xml:space="preserve">Return list from database in order of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return list from database based on </t>
+    <t xml:space="preserve">Return list from database </t>
+  </si>
+  <si>
+    <t>Return results from database, nearest to location</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,7 +330,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +647,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1028,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
@@ -1100,7 +1093,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C26" t="s">

--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni - gitfolder\Agile-Software-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_6f\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F11304-CC38-4936-88D1-2F1D1B1FD7C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF322CD-2D02-41D9-9553-610B026E04BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -65,9 +67,15 @@
     <t>Sprint Review</t>
   </si>
   <si>
+    <t>Date of addition</t>
+  </si>
+  <si>
     <t>14. As a customer, I can access the home page</t>
   </si>
   <si>
+    <t>(if not in original backlog)</t>
+  </si>
+  <si>
     <t>Design the theme and layout for the website</t>
   </si>
   <si>
@@ -89,63 +97,90 @@
     <t>Webpage link to API to call database search results</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Search functionality in database</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Write and pass unit tests on the back end functions</t>
+  </si>
+  <si>
+    <t>AN, CW</t>
+  </si>
+  <si>
+    <t>29/1/2020</t>
+  </si>
+  <si>
+    <t>Add validation for input</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>2. As a customer, I can search based on procedure</t>
+  </si>
+  <si>
+    <t>3. As a customer, I can search based on location</t>
+  </si>
+  <si>
+    <t>Create multiple search bars on webpage allowing user input</t>
+  </si>
+  <si>
+    <t>AG, AI</t>
+  </si>
+  <si>
+    <t>Access the device's co-ordinates to enable a LIVE Location search</t>
+  </si>
+  <si>
+    <t>WM, AI, AR</t>
+  </si>
+  <si>
+    <t>28/1/2020</t>
+  </si>
+  <si>
+    <t>Assign co-ordinates to all providers in the database</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>8. As a customer, I can view search results in a list</t>
+  </si>
+  <si>
+    <t>Create results page for website to return list</t>
+  </si>
+  <si>
+    <t>Return list from database</t>
+  </si>
+  <si>
+    <t>9. As a customer, I can view search results on a map</t>
+  </si>
+  <si>
+    <t>Research map API functionality</t>
+  </si>
+  <si>
+    <t>AR, WM,AI</t>
+  </si>
+  <si>
+    <t>Return results from database, nearest to location</t>
+  </si>
+  <si>
+    <t>12. As a customer, I can view details of a search result in the list</t>
+  </si>
+  <si>
+    <t>Access a further details page on a specific search result (button call)</t>
+  </si>
+  <si>
     <t>Not Started</t>
   </si>
   <si>
-    <t>Search functionality in database</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>2. As a customer, I can search based on procedure</t>
-  </si>
-  <si>
-    <t>3. As a customer, I can search based on location</t>
-  </si>
-  <si>
-    <t>Create multiple search bars on webpage allowing user input</t>
-  </si>
-  <si>
-    <t>AG, AI</t>
-  </si>
-  <si>
-    <t>In-Progress</t>
-  </si>
-  <si>
-    <t>Access the device's co-ordinates to enable a LIVE Location search</t>
-  </si>
-  <si>
-    <t>WM, AI, AR</t>
-  </si>
-  <si>
-    <t>Assign co-ordinates to all providers in the database</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>8. As a customer, I can view search results in a list</t>
-  </si>
-  <si>
-    <t>Create results page for website to return list</t>
-  </si>
-  <si>
-    <t>9. As a customer, I can view search results on a map</t>
-  </si>
-  <si>
-    <t>Research map API functionality</t>
-  </si>
-  <si>
-    <t>AR, WM,AI</t>
-  </si>
-  <si>
-    <t>12. As a customer, I can view details of a search result in the list</t>
-  </si>
-  <si>
-    <t>Access a further details page on a specific search result (button call)</t>
-  </si>
-  <si>
     <t>Return full set of details on a specific provider ID from DB</t>
   </si>
   <si>
@@ -197,9 +232,6 @@
     <t>Design CraneWare contact page</t>
   </si>
   <si>
-    <t>AG</t>
-  </si>
-  <si>
     <t>7. As a customer, I can sort search results based on "best match"</t>
   </si>
   <si>
@@ -225,19 +257,13 @@
   </si>
   <si>
     <t>User Story #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return list from database </t>
-  </si>
-  <si>
-    <t>Return results from database, nearest to location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,23 +670,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -694,24 +721,30 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -722,16 +755,19 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -742,25 +778,28 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="5" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -771,299 +810,382 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B13"/>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="5">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1072,15 +1194,21 @@
         <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1091,472 +1219,803 @@
       <c r="G25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26">
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
         <v>8</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>8</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
         <v>26</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D45" t="s">
         <v>48</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0.5</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
         <v>59</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
         <v>26</v>
       </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="9">
-        <f t="shared" ref="E54:J54" si="0">SUM(E3:E53)</f>
-        <v>99</v>
-      </c>
-      <c r="F54" s="9">
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="1" customFormat="1">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="1" customFormat="1">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="9" customFormat="1">
+      <c r="A65" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" ref="E65:J65" si="0">SUM(E3:E63)</f>
+        <v>121</v>
+      </c>
+      <c r="F65" s="9">
         <f t="shared" si="0"/>
-        <v>74.5</v>
-      </c>
-      <c r="G54" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="G65" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H54" s="9">
+        <v>64</v>
+      </c>
+      <c r="H65" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="I65" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J65" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1584,24 +2043,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1615,22 +2074,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1660,9 +2119,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1675,9 +2134,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1690,12 +2149,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="D7" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1708,9 +2167,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1723,9 +2182,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1738,9 +2197,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
